--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_492__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_492__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,10 +6118,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>46.48447036743164</c:v>
+                  <c:v>46.48445892333984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.89857482910156</c:v>
+                  <c:v>93.89856719970703</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.993953227996826</c:v>
@@ -6133,40 +6133,40 @@
                   <c:v>95.30600738525391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.46348571777344</c:v>
+                  <c:v>82.46347045898438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.41110992431641</c:v>
+                  <c:v>97.4111328125</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.38383936882019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.014178276062012</c:v>
+                  <c:v>-2.014181137084961</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.06242370605469</c:v>
+                  <c:v>69.06243133544922</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>75.96480560302734</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.29625701904297</c:v>
+                  <c:v>97.29627227783203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.53921127319336</c:v>
+                  <c:v>10.53922367095947</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.44314575195312</c:v>
+                  <c:v>95.44315338134766</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.6783206462860107</c:v>
+                  <c:v>-0.6783177256584167</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.65975570678711</c:v>
+                  <c:v>35.65972518920898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.2373747378587723</c:v>
+                  <c:v>-0.2373806238174438</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>94.33464050292969</c:v>
@@ -6175,7 +6175,7 @@
                   <c:v>44.23797225952148</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.571303963661194</c:v>
+                  <c:v>-1.571309804916382</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>93.88141632080078</c:v>
@@ -6184,52 +6184,52 @@
                   <c:v>97.02037048339844</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94.85379791259766</c:v>
+                  <c:v>94.85379028320312</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>93.38325500488281</c:v>
+                  <c:v>93.38327026367188</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.207866072654724</c:v>
+                  <c:v>-1.207860231399536</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95.69728851318359</c:v>
+                  <c:v>95.69729614257812</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>77.38970184326172</c:v>
+                  <c:v>77.38969421386719</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63.44182586669922</c:v>
+                  <c:v>63.44183731079102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.435336947441101</c:v>
+                  <c:v>-1.435331106185913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.32661533355713</c:v>
+                  <c:v>10.32660961151123</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.06274795532227</c:v>
+                  <c:v>40.06270980834961</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.340505361557007</c:v>
+                  <c:v>-2.340490579605103</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-3.960990428924561</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.929694414138794</c:v>
+                  <c:v>-3.929688453674316</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.622440099716187</c:v>
+                  <c:v>-2.622442960739136</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>96.80734252929688</c:v>
+                  <c:v>96.80735015869141</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.88793659210205</c:v>
+                  <c:v>14.88793087005615</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.779646158218384</c:v>
+                  <c:v>-1.779649138450623</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-0.9475764036178589</c:v>
@@ -6238,25 +6238,25 @@
                   <c:v>100.5186996459961</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.5760498046875</c:v>
+                  <c:v>16.57603454589844</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>54.75705718994141</c:v>
+                  <c:v>54.7570686340332</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.247008204460144</c:v>
+                  <c:v>-1.246996402740479</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>48.41343688964844</c:v>
+                  <c:v>48.4134521484375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.09137487411499</c:v>
+                  <c:v>-3.091368913650513</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-1.943381547927856</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.385594367980957</c:v>
+                  <c:v>-2.385597467422485</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>96.19291687011719</c:v>
@@ -6268,7 +6268,7 @@
                   <c:v>96.75920104980469</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-9.459407806396484</c:v>
+                  <c:v>-9.459389686584473</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>81.04476165771484</c:v>
@@ -6283,70 +6283,70 @@
                   <c:v>59.88123321533203</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56.30400848388672</c:v>
+                  <c:v>56.30400085449219</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>74.80673217773438</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.6242331266403198</c:v>
+                  <c:v>-0.6242390275001526</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>14.62717342376709</c:v>
+                  <c:v>14.62715911865234</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>95.52011871337891</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.9263400435447693</c:v>
+                  <c:v>-0.9263341426849365</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.9369464516639709</c:v>
+                  <c:v>-0.9369405508041382</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>97.34449005126953</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.164628982543945</c:v>
+                  <c:v>2.1646409034729</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>101.240852355957</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-2.934112787246704</c:v>
+                  <c:v>-2.934106826782227</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.3858824074268341</c:v>
+                  <c:v>-0.3858882784843445</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-4.107063770294189</c:v>
+                  <c:v>-4.107058048248291</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>67.38626098632812</c:v>
+                  <c:v>67.38626861572266</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>95.59339141845703</c:v>
+                  <c:v>95.59337615966797</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>95.30573272705078</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>81.22416687011719</c:v>
+                  <c:v>81.22415161132812</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>97.12869262695312</c:v>
+                  <c:v>97.12870025634766</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.867607831954956</c:v>
+                  <c:v>-2.867610931396484</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>96.10254669189453</c:v>
+                  <c:v>96.10256195068359</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-2.300790071487427</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>99.476318359375</c:v>
+                  <c:v>99.47632598876953</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>95.41379547119141</c:v>
@@ -6355,55 +6355,55 @@
                   <c:v>95.98047637939453</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>96.19686126708984</c:v>
+                  <c:v>96.19685363769531</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>78.83856964111328</c:v>
+                  <c:v>78.83856201171875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.9608256220817566</c:v>
+                  <c:v>-0.9608197212219238</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.519227266311646</c:v>
+                  <c:v>-2.519230127334595</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>95.20589447021484</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>96.1220703125</c:v>
+                  <c:v>96.12206268310547</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>94.34939575195312</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-2.827095985412598</c:v>
+                  <c:v>-2.827101707458496</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-5.161457061767578</c:v>
+                  <c:v>-5.16145133972168</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.2978178858757019</c:v>
+                  <c:v>-0.2978090643882751</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>95.15435028076172</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>94.64216613769531</c:v>
+                  <c:v>94.64215850830078</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-2.123361587524414</c:v>
+                  <c:v>-2.123355627059937</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.72417426109314</c:v>
+                  <c:v>3.724179983139038</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94.71730041503906</c:v>
+                  <c:v>94.71730804443359</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>89.98631286621094</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-6.778596878051758</c:v>
+                  <c:v>-6.778614521026611</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>85.60948181152344</c:v>
@@ -6412,16 +6412,16 @@
                   <c:v>96.02236938476562</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.03028183057904243</c:v>
+                  <c:v>-0.03028770908713341</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94.78641510009766</c:v>
+                  <c:v>94.78642272949219</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.610284328460693</c:v>
+                  <c:v>-1.610278487205505</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11.56153583526611</c:v>
+                  <c:v>11.56150913238525</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>80.87615966796875</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>46.48447036743164</v>
+        <v>46.48445892333984</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>87.86960000000001</v>
       </c>
       <c r="F3">
-        <v>93.89857482910156</v>
+        <v>93.89856719970703</v>
       </c>
       <c r="G3">
         <v>102</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>82.46348571777344</v>
+        <v>82.46347045898438</v>
       </c>
       <c r="G7">
         <v>102</v>
@@ -7311,7 +7311,7 @@
         <v>98.1893</v>
       </c>
       <c r="F8">
-        <v>97.41110992431641</v>
+        <v>97.4111328125</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>-2.014178276062012</v>
+        <v>-2.014181137084961</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>69.06242370605469</v>
+        <v>69.06243133544922</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>84.36620000000001</v>
       </c>
       <c r="F13">
-        <v>97.29625701904297</v>
+        <v>97.29627227783203</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.53921127319336</v>
+        <v>10.53922367095947</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>93.33920000000001</v>
       </c>
       <c r="F15">
-        <v>95.44314575195312</v>
+        <v>95.44315338134766</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>-0.6783206462860107</v>
+        <v>-0.6783177256584167</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>35.65975570678711</v>
+        <v>35.65972518920898</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.2373747378587723</v>
+        <v>-0.2373806238174438</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-1.571303963661194</v>
+        <v>-1.571309804916382</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>93.3062</v>
       </c>
       <c r="F24">
-        <v>94.85379791259766</v>
+        <v>94.85379028320312</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>92.36799999999999</v>
       </c>
       <c r="F25">
-        <v>93.38325500488281</v>
+        <v>93.38327026367188</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-1.207866072654724</v>
+        <v>-1.207860231399536</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>95.69728851318359</v>
+        <v>95.69729614257812</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>77.38970184326172</v>
+        <v>77.38969421386719</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>63.44182586669922</v>
+        <v>63.44183731079102</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-1.435336947441101</v>
+        <v>-1.435331106185913</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>10.32661533355713</v>
+        <v>10.32660961151123</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>40.06274795532227</v>
+        <v>40.06270980834961</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-2.340505361557007</v>
+        <v>-2.340490579605103</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-3.929694414138794</v>
+        <v>-3.929688453674316</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-2.622440099716187</v>
+        <v>-2.622442960739136</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>98.208</v>
       </c>
       <c r="F37">
-        <v>96.80734252929688</v>
+        <v>96.80735015869141</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>14.88793659210205</v>
+        <v>14.88793087005615</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-1.779646158218384</v>
+        <v>-1.779649138450623</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>16.5760498046875</v>
+        <v>16.57603454589844</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>87.6232</v>
       </c>
       <c r="F43">
-        <v>54.75705718994141</v>
+        <v>54.7570686340332</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-1.247008204460144</v>
+        <v>-1.246996402740479</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>48.41343688964844</v>
+        <v>48.4134521484375</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-3.09137487411499</v>
+        <v>-3.091368913650513</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-2.385594367980957</v>
+        <v>-2.385597467422485</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>-9.459407806396484</v>
+        <v>-9.459389686584473</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>56.30400848388672</v>
+        <v>56.30400085449219</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.6242331266403198</v>
+        <v>-0.6242390275001526</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>14.62717342376709</v>
+        <v>14.62715911865234</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.9263400435447693</v>
+        <v>-0.9263341426849365</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.9369464516639709</v>
+        <v>-0.9369405508041382</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>2.164628982543945</v>
+        <v>2.1646409034729</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-2.934112787246704</v>
+        <v>-2.934106826782227</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.3858824074268341</v>
+        <v>-0.3858882784843445</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-4.107063770294189</v>
+        <v>-4.107058048248291</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>67.38626098632812</v>
+        <v>67.38626861572266</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>95.59339141845703</v>
+        <v>95.59337615966797</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>81.22416687011719</v>
+        <v>81.22415161132812</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>94.6035</v>
       </c>
       <c r="F74">
-        <v>97.12869262695312</v>
+        <v>97.12870025634766</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-2.867607831954956</v>
+        <v>-2.867610931396484</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>96.10254669189453</v>
+        <v>96.10256195068359</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>97.7385</v>
       </c>
       <c r="F78">
-        <v>99.476318359375</v>
+        <v>99.47632598876953</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>98.0264</v>
       </c>
       <c r="F81">
-        <v>96.19686126708984</v>
+        <v>96.19685363769531</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>78.83856964111328</v>
+        <v>78.83856201171875</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-0.9608256220817566</v>
+        <v>-0.9608197212219238</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-2.519227266311646</v>
+        <v>-2.519230127334595</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>95.37090000000001</v>
       </c>
       <c r="F86">
-        <v>96.1220703125</v>
+        <v>96.12206268310547</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-2.827095985412598</v>
+        <v>-2.827101707458496</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-5.161457061767578</v>
+        <v>-5.16145133972168</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.2978178858757019</v>
+        <v>-0.2978090643882751</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>95.6799</v>
       </c>
       <c r="F92">
-        <v>94.64216613769531</v>
+        <v>94.64215850830078</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>-2.123361587524414</v>
+        <v>-2.123355627059937</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>3.72417426109314</v>
+        <v>3.724179983139038</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>93.8582</v>
       </c>
       <c r="F95">
-        <v>94.71730041503906</v>
+        <v>94.71730804443359</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>-6.778596878051758</v>
+        <v>-6.778614521026611</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-0.03028183057904243</v>
+        <v>-0.03028770908713341</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>97.31619999999999</v>
       </c>
       <c r="F101">
-        <v>94.78641510009766</v>
+        <v>94.78642272949219</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>-1.610284328460693</v>
+        <v>-1.610278487205505</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>11.56153583526611</v>
+        <v>11.56150913238525</v>
       </c>
     </row>
     <row r="104" spans="1:6">
